--- a/data/pca/factorExposure/factorExposure_2009-06-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0164924503062543</v>
+        <v>0.01638582674862334</v>
       </c>
       <c r="C2">
-        <v>0.001321464595360832</v>
+        <v>-0.001052383377730939</v>
       </c>
       <c r="D2">
-        <v>0.008190457083344708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009414391235709084</v>
+      </c>
+      <c r="E2">
+        <v>0.001583204240195194</v>
+      </c>
+      <c r="F2">
+        <v>-0.01249173337421769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09048503480724883</v>
+        <v>0.09215685334333185</v>
       </c>
       <c r="C4">
-        <v>0.01949478798737532</v>
+        <v>-0.01469028328769391</v>
       </c>
       <c r="D4">
-        <v>0.07621003798100656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0816506819901843</v>
+      </c>
+      <c r="E4">
+        <v>0.02627973032586022</v>
+      </c>
+      <c r="F4">
+        <v>0.03182468023923944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.514528774181417e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-5.211976592682747e-08</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6.627684174356735e-05</v>
+      </c>
+      <c r="E5">
+        <v>-5.741592148067739e-05</v>
+      </c>
+      <c r="F5">
+        <v>2.886406671332156e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1527304549689663</v>
+        <v>0.1614012429782248</v>
       </c>
       <c r="C6">
-        <v>0.02914421119128064</v>
+        <v>-0.02854077534492706</v>
       </c>
       <c r="D6">
-        <v>-0.03706677792155055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0269094936387574</v>
+      </c>
+      <c r="E6">
+        <v>0.009284665847029272</v>
+      </c>
+      <c r="F6">
+        <v>0.04125820373698356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05986507674045596</v>
+        <v>0.06188511482014467</v>
       </c>
       <c r="C7">
-        <v>0.001650665097919268</v>
+        <v>0.001642233404999642</v>
       </c>
       <c r="D7">
-        <v>0.04837949113778423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05285867576827852</v>
+      </c>
+      <c r="E7">
+        <v>0.01265038751337513</v>
+      </c>
+      <c r="F7">
+        <v>0.0495575140371681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06210411259197223</v>
+        <v>0.05764635915019775</v>
       </c>
       <c r="C8">
-        <v>-0.01033140832309472</v>
+        <v>0.01231982954687745</v>
       </c>
       <c r="D8">
-        <v>0.02637430327005622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03056339844758518</v>
+      </c>
+      <c r="E8">
+        <v>0.01742078915937689</v>
+      </c>
+      <c r="F8">
+        <v>-0.02554000483075188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06985043187916506</v>
+        <v>0.07147799029966399</v>
       </c>
       <c r="C9">
-        <v>0.01581695712441485</v>
+        <v>-0.01041636203163707</v>
       </c>
       <c r="D9">
-        <v>0.07705815207376328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08487676801168749</v>
+      </c>
+      <c r="E9">
+        <v>0.02354938391621371</v>
+      </c>
+      <c r="F9">
+        <v>0.04820533434883367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08481963512741018</v>
+        <v>0.0873197038855551</v>
       </c>
       <c r="C10">
-        <v>0.01467450290731293</v>
+        <v>-0.02149996255880113</v>
       </c>
       <c r="D10">
-        <v>-0.1666248756821626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1601222259432075</v>
+      </c>
+      <c r="E10">
+        <v>-0.03302237362061935</v>
+      </c>
+      <c r="F10">
+        <v>-0.05864058903305311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09087802932103946</v>
+        <v>0.08776767612930637</v>
       </c>
       <c r="C11">
-        <v>0.01688935907695124</v>
+        <v>-0.01137453567926569</v>
       </c>
       <c r="D11">
-        <v>0.1103459587083024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1176128331499099</v>
+      </c>
+      <c r="E11">
+        <v>0.04791046855208701</v>
+      </c>
+      <c r="F11">
+        <v>0.02456451666502986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09605133563655766</v>
+        <v>0.09027162670634835</v>
       </c>
       <c r="C12">
-        <v>0.01492967911757873</v>
+        <v>-0.00855645132978187</v>
       </c>
       <c r="D12">
-        <v>0.1170233027594669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1322759872646214</v>
+      </c>
+      <c r="E12">
+        <v>0.04744539174301435</v>
+      </c>
+      <c r="F12">
+        <v>0.03155738637772777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04461902076371256</v>
+        <v>0.04360212457108036</v>
       </c>
       <c r="C13">
-        <v>0.006345759672911406</v>
+        <v>-0.00252403039765291</v>
       </c>
       <c r="D13">
-        <v>0.04437805220269654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05377107086436701</v>
+      </c>
+      <c r="E13">
+        <v>-0.0002114736308664503</v>
+      </c>
+      <c r="F13">
+        <v>0.004488188457985323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01913528233016232</v>
+        <v>0.02358820193710093</v>
       </c>
       <c r="C14">
-        <v>0.01513282334886075</v>
+        <v>-0.01372249483469427</v>
       </c>
       <c r="D14">
-        <v>0.02857974259296825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03214347191817049</v>
+      </c>
+      <c r="E14">
+        <v>0.01779340828677525</v>
+      </c>
+      <c r="F14">
+        <v>0.01251415668382197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03369688002072608</v>
+        <v>0.03369189245913867</v>
       </c>
       <c r="C15">
-        <v>0.007467744531107913</v>
+        <v>-0.00528994293394391</v>
       </c>
       <c r="D15">
-        <v>0.04316052919528274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04652306688028152</v>
+      </c>
+      <c r="E15">
+        <v>0.007752826255174172</v>
+      </c>
+      <c r="F15">
+        <v>0.02982769592069967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07464108376979582</v>
+        <v>0.07255879576426755</v>
       </c>
       <c r="C16">
-        <v>0.00732871459315807</v>
+        <v>-0.001531154560921809</v>
       </c>
       <c r="D16">
-        <v>0.1147907245190325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1282708240081109</v>
+      </c>
+      <c r="E16">
+        <v>0.06178795511461441</v>
+      </c>
+      <c r="F16">
+        <v>0.02766437619322059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0004376433714711272</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003762349415279215</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002478122171970296</v>
+      </c>
+      <c r="E17">
+        <v>0.001543584548726525</v>
+      </c>
+      <c r="F17">
+        <v>-0.002718894557961932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02019932439157507</v>
+        <v>0.04026674877296991</v>
       </c>
       <c r="C18">
-        <v>-0.002649846975863177</v>
+        <v>0.002653496962102981</v>
       </c>
       <c r="D18">
-        <v>0.02296235184901089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01554501148443154</v>
+      </c>
+      <c r="E18">
+        <v>-0.006592485265647902</v>
+      </c>
+      <c r="F18">
+        <v>-0.009843340412870232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06286258916316703</v>
+        <v>0.06226453528141616</v>
       </c>
       <c r="C20">
-        <v>0.005263559306733151</v>
+        <v>-0.000939648533012684</v>
       </c>
       <c r="D20">
-        <v>0.06947438589806124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07876164039825577</v>
+      </c>
+      <c r="E20">
+        <v>0.05745291032315644</v>
+      </c>
+      <c r="F20">
+        <v>0.02998428413201841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03802268755751109</v>
+        <v>0.04038945129843919</v>
       </c>
       <c r="C21">
-        <v>0.00928177106986576</v>
+        <v>-0.006255849996469188</v>
       </c>
       <c r="D21">
-        <v>0.03417298484089363</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03685648078008836</v>
+      </c>
+      <c r="E21">
+        <v>-0.002069483081177681</v>
+      </c>
+      <c r="F21">
+        <v>-0.02592305034026604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04139634778547557</v>
+        <v>0.04434360165447754</v>
       </c>
       <c r="C22">
-        <v>0.002013598092187316</v>
+        <v>-0.00104126242040379</v>
       </c>
       <c r="D22">
-        <v>-0.0005144515141082022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007695292296242193</v>
+      </c>
+      <c r="E22">
+        <v>0.03846157076072331</v>
+      </c>
+      <c r="F22">
+        <v>-0.04852722703944292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04135896798807723</v>
+        <v>0.04431939926209394</v>
       </c>
       <c r="C23">
-        <v>0.00200316803960384</v>
+        <v>-0.001032153855873786</v>
       </c>
       <c r="D23">
-        <v>-0.0004905757612758509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007709433191522621</v>
+      </c>
+      <c r="E23">
+        <v>0.03864422438470998</v>
+      </c>
+      <c r="F23">
+        <v>-0.04849880074019711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08207232568177616</v>
+        <v>0.07847831352618381</v>
       </c>
       <c r="C24">
-        <v>0.008005811264325792</v>
+        <v>-0.002310488601313707</v>
       </c>
       <c r="D24">
-        <v>0.1154192050282401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1204071094055691</v>
+      </c>
+      <c r="E24">
+        <v>0.0495842507689076</v>
+      </c>
+      <c r="F24">
+        <v>0.02996143354787862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08690586233059568</v>
+        <v>0.0835130596581069</v>
       </c>
       <c r="C25">
-        <v>0.01025876536060645</v>
+        <v>-0.005021656155568177</v>
       </c>
       <c r="D25">
-        <v>0.1018098820521656</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096559298473301</v>
+      </c>
+      <c r="E25">
+        <v>0.03288398581148954</v>
+      </c>
+      <c r="F25">
+        <v>0.02751022696890954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05794582052184839</v>
+        <v>0.05979130983849856</v>
       </c>
       <c r="C26">
-        <v>0.01774335133290631</v>
+        <v>-0.01449158637339231</v>
       </c>
       <c r="D26">
-        <v>0.03112728833074231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04362855782568406</v>
+      </c>
+      <c r="E26">
+        <v>0.02943606222706293</v>
+      </c>
+      <c r="F26">
+        <v>-0.007873629396376184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.13404010613702</v>
+        <v>0.1423073016751793</v>
       </c>
       <c r="C28">
-        <v>0.01356981063675452</v>
+        <v>-0.0233644403049921</v>
       </c>
       <c r="D28">
-        <v>-0.2666857858316887</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2606233202553301</v>
+      </c>
+      <c r="E28">
+        <v>-0.06893253276197958</v>
+      </c>
+      <c r="F28">
+        <v>0.004198837345593747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02524546923242467</v>
+        <v>0.02845648407190095</v>
       </c>
       <c r="C29">
-        <v>0.009691549478590297</v>
+        <v>-0.008806712082968406</v>
       </c>
       <c r="D29">
-        <v>0.02790738844428631</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03018527236190584</v>
+      </c>
+      <c r="E29">
+        <v>0.0128041874934576</v>
+      </c>
+      <c r="F29">
+        <v>-0.01338795893623718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06104922536562628</v>
+        <v>0.05858997943811541</v>
       </c>
       <c r="C30">
-        <v>0.008449694248535417</v>
+        <v>-0.002715523004928744</v>
       </c>
       <c r="D30">
-        <v>0.07552039073923711</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08744106952531072</v>
+      </c>
+      <c r="E30">
+        <v>0.01401551745672894</v>
+      </c>
+      <c r="F30">
+        <v>0.07928439242119907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05064567872067313</v>
+        <v>0.05155753394992333</v>
       </c>
       <c r="C31">
-        <v>0.0173444444348325</v>
+        <v>-0.0161269285903725</v>
       </c>
       <c r="D31">
-        <v>0.02150439904181848</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02453019298971099</v>
+      </c>
+      <c r="E31">
+        <v>0.02857828724958168</v>
+      </c>
+      <c r="F31">
+        <v>-0.0001516747126148099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04806117161518547</v>
+        <v>0.05239980515461498</v>
       </c>
       <c r="C32">
-        <v>0.002420009590704715</v>
+        <v>0.001347134583613026</v>
       </c>
       <c r="D32">
-        <v>0.02577861073344799</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03448754592269405</v>
+      </c>
+      <c r="E32">
+        <v>0.03332330570011589</v>
+      </c>
+      <c r="F32">
+        <v>0.003401246446130528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09017701117026397</v>
+        <v>0.08939276835681864</v>
       </c>
       <c r="C33">
-        <v>0.01303775551568202</v>
+        <v>-0.007021545573153178</v>
       </c>
       <c r="D33">
-        <v>0.08799137828933004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1031866515127534</v>
+      </c>
+      <c r="E33">
+        <v>0.0465514169254114</v>
+      </c>
+      <c r="F33">
+        <v>0.04353914108345141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0688584069321896</v>
+        <v>0.06745582437296638</v>
       </c>
       <c r="C34">
-        <v>0.01548414308071826</v>
+        <v>-0.01053875168768724</v>
       </c>
       <c r="D34">
-        <v>0.0965979681894558</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.10922648855321</v>
+      </c>
+      <c r="E34">
+        <v>0.03577915321106406</v>
+      </c>
+      <c r="F34">
+        <v>0.03513478569457432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02510037194972419</v>
+        <v>0.02665375190163614</v>
       </c>
       <c r="C35">
-        <v>0.003665766776107404</v>
+        <v>-0.003027586316879204</v>
       </c>
       <c r="D35">
-        <v>0.008387286557273214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01219168016570289</v>
+      </c>
+      <c r="E35">
+        <v>0.01279154685144449</v>
+      </c>
+      <c r="F35">
+        <v>0.0001226840500944361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02572966334442716</v>
+        <v>0.02788899418098657</v>
       </c>
       <c r="C36">
-        <v>0.007625163286753841</v>
+        <v>-0.006907680518653861</v>
       </c>
       <c r="D36">
-        <v>0.0384365556729881</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03897764300425981</v>
+      </c>
+      <c r="E36">
+        <v>0.01682683083385554</v>
+      </c>
+      <c r="F36">
+        <v>0.01421713841034429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001380279873537444</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008338497072857783</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002832386926137841</v>
+      </c>
+      <c r="E37">
+        <v>-0.0001378782218275904</v>
+      </c>
+      <c r="F37">
+        <v>-0.001599140353801062</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.112627892446084</v>
+        <v>0.1013004384986834</v>
       </c>
       <c r="C39">
-        <v>0.02308610941603815</v>
+        <v>-0.01629803642184701</v>
       </c>
       <c r="D39">
-        <v>0.147745766374163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1506694171521789</v>
+      </c>
+      <c r="E39">
+        <v>0.0592980255133198</v>
+      </c>
+      <c r="F39">
+        <v>0.02224587125305767</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03818804547782418</v>
+        <v>0.04349452516290721</v>
       </c>
       <c r="C40">
-        <v>0.009161793692307654</v>
+        <v>-0.007593571954604191</v>
       </c>
       <c r="D40">
-        <v>0.02400034588706816</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03297295801014537</v>
+      </c>
+      <c r="E40">
+        <v>0.002368817347333184</v>
+      </c>
+      <c r="F40">
+        <v>-0.01675462188589337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02489555161645518</v>
+        <v>0.02718066531372366</v>
       </c>
       <c r="C41">
-        <v>0.007373057604948004</v>
+        <v>-0.006821858428139293</v>
       </c>
       <c r="D41">
-        <v>0.009238910691774559</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01096336683544657</v>
+      </c>
+      <c r="E41">
+        <v>0.01186577042865139</v>
+      </c>
+      <c r="F41">
+        <v>-0.0074502337276766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04218307337518745</v>
+        <v>0.04010758463462463</v>
       </c>
       <c r="C43">
-        <v>0.008402818105482915</v>
+        <v>-0.007687711404343544</v>
       </c>
       <c r="D43">
-        <v>0.01780811035087837</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01933716483845928</v>
+      </c>
+      <c r="E43">
+        <v>0.02551485782231988</v>
+      </c>
+      <c r="F43">
+        <v>-0.01576662370041217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06914818613623976</v>
+        <v>0.07834896440557788</v>
       </c>
       <c r="C44">
-        <v>0.02436727801921004</v>
+        <v>-0.0195555622247429</v>
       </c>
       <c r="D44">
-        <v>0.09761905041019489</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09659840804170435</v>
+      </c>
+      <c r="E44">
+        <v>0.06157079907860753</v>
+      </c>
+      <c r="F44">
+        <v>0.1695746470090357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02191247464362787</v>
+        <v>0.02492499534791305</v>
       </c>
       <c r="C46">
-        <v>0.004564902209553613</v>
+        <v>-0.003761672652895347</v>
       </c>
       <c r="D46">
-        <v>0.00973225530018062</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01284588086185451</v>
+      </c>
+      <c r="E46">
+        <v>0.02740638705794039</v>
+      </c>
+      <c r="F46">
+        <v>-0.0058003647740228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05222210927800557</v>
+        <v>0.05170735182747455</v>
       </c>
       <c r="C47">
-        <v>0.005036299289516669</v>
+        <v>-0.004350107156572049</v>
       </c>
       <c r="D47">
-        <v>0.006779909384991701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01076761063230085</v>
+      </c>
+      <c r="E47">
+        <v>0.02260439477197689</v>
+      </c>
+      <c r="F47">
+        <v>-0.0319290912711445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04836811647050509</v>
+        <v>0.05090555515854901</v>
       </c>
       <c r="C48">
-        <v>0.004947211050044972</v>
+        <v>-0.002290794226040592</v>
       </c>
       <c r="D48">
-        <v>0.04663995642207797</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05019593800056873</v>
+      </c>
+      <c r="E48">
+        <v>-0.004528202922140078</v>
+      </c>
+      <c r="F48">
+        <v>0.01260707759277148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.199928453508667</v>
+        <v>0.2001336847058948</v>
       </c>
       <c r="C49">
-        <v>0.02182733171741845</v>
+        <v>-0.02061266007796082</v>
       </c>
       <c r="D49">
-        <v>-0.01222387759840039</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004195300904818587</v>
+      </c>
+      <c r="E49">
+        <v>0.03342535227557464</v>
+      </c>
+      <c r="F49">
+        <v>0.04889022523956014</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0497722386458475</v>
+        <v>0.05181602755902077</v>
       </c>
       <c r="C50">
-        <v>0.01321036804403668</v>
+        <v>-0.01180068740349798</v>
       </c>
       <c r="D50">
-        <v>0.02050714022138151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02291977941078574</v>
+      </c>
+      <c r="E50">
+        <v>0.02946518503378736</v>
+      </c>
+      <c r="F50">
+        <v>0.01023448018630648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1557966799587054</v>
+        <v>0.1492081951566084</v>
       </c>
       <c r="C52">
-        <v>0.0207521749158244</v>
+        <v>-0.01906922323427326</v>
       </c>
       <c r="D52">
-        <v>0.04270204433616136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04187112791501657</v>
+      </c>
+      <c r="E52">
+        <v>0.02235585039486932</v>
+      </c>
+      <c r="F52">
+        <v>0.0424049517832747</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1748806770118468</v>
+        <v>0.169446890999856</v>
       </c>
       <c r="C53">
-        <v>0.02133175697353487</v>
+        <v>-0.0219484762752163</v>
       </c>
       <c r="D53">
-        <v>0.005990914653587184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005184191035079577</v>
+      </c>
+      <c r="E53">
+        <v>0.02980190423787302</v>
+      </c>
+      <c r="F53">
+        <v>0.07519437407957881</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01683189898812881</v>
+        <v>0.01942506115706472</v>
       </c>
       <c r="C54">
-        <v>0.01231693757475657</v>
+        <v>-0.01095246154171486</v>
       </c>
       <c r="D54">
-        <v>0.02999769942828922</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03284843141179317</v>
+      </c>
+      <c r="E54">
+        <v>0.02081102616718002</v>
+      </c>
+      <c r="F54">
+        <v>-0.002759431400525253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1176347491084628</v>
+        <v>0.1159501489423578</v>
       </c>
       <c r="C55">
-        <v>0.01895279865013486</v>
+        <v>-0.01908672976164839</v>
       </c>
       <c r="D55">
-        <v>0.005283265722302553</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007862910308407368</v>
+      </c>
+      <c r="E55">
+        <v>0.02534734269294727</v>
+      </c>
+      <c r="F55">
+        <v>0.0467750611950535</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.181135049293284</v>
+        <v>0.1759023131061105</v>
       </c>
       <c r="C56">
-        <v>0.01931415322441566</v>
+        <v>-0.02000652428010625</v>
       </c>
       <c r="D56">
-        <v>-0.004887434104450729</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003440030513998675</v>
+      </c>
+      <c r="E56">
+        <v>0.03212465983446835</v>
+      </c>
+      <c r="F56">
+        <v>0.05512213445239227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04929846006862008</v>
+        <v>0.04691757972073914</v>
       </c>
       <c r="C58">
-        <v>0.005573219880215885</v>
+        <v>-0.0003687364943061266</v>
       </c>
       <c r="D58">
-        <v>0.06421646536711345</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07589613179952993</v>
+      </c>
+      <c r="E58">
+        <v>0.03702001826711793</v>
+      </c>
+      <c r="F58">
+        <v>-0.036820920002053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1618076431407911</v>
+        <v>0.1671010196569204</v>
       </c>
       <c r="C59">
-        <v>0.01522979764897336</v>
+        <v>-0.02362779207000831</v>
       </c>
       <c r="D59">
-        <v>-0.2241444362295631</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.217894046841979</v>
+      </c>
+      <c r="E59">
+        <v>-0.04947482637673833</v>
+      </c>
+      <c r="F59">
+        <v>-0.03956980377993819</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2381754894058132</v>
+        <v>0.2302106057086793</v>
       </c>
       <c r="C60">
-        <v>0.002896901717228292</v>
+        <v>-0.0003247814218654938</v>
       </c>
       <c r="D60">
-        <v>0.03729737378585014</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03921589809483064</v>
+      </c>
+      <c r="E60">
+        <v>0.006625141719099233</v>
+      </c>
+      <c r="F60">
+        <v>0.006087799065776299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08390604075584947</v>
+        <v>0.07713447123676992</v>
       </c>
       <c r="C61">
-        <v>0.01722175638720674</v>
+        <v>-0.01155223060435434</v>
       </c>
       <c r="D61">
-        <v>0.1080071049179213</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1155707460542368</v>
+      </c>
+      <c r="E61">
+        <v>0.03777580682231203</v>
+      </c>
+      <c r="F61">
+        <v>0.008665278272004091</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1726536442975032</v>
+        <v>0.1693578215984471</v>
       </c>
       <c r="C62">
-        <v>0.02327787536799594</v>
+        <v>-0.02281326997137643</v>
       </c>
       <c r="D62">
-        <v>0.0001955247409007573</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005779235387935497</v>
+      </c>
+      <c r="E62">
+        <v>0.03410272818491406</v>
+      </c>
+      <c r="F62">
+        <v>0.04161549234529002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04156055866113568</v>
+        <v>0.04561796248745574</v>
       </c>
       <c r="C63">
-        <v>0.005441271784042077</v>
+        <v>-0.001715323301749484</v>
       </c>
       <c r="D63">
-        <v>0.04859019880055118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06013084230632324</v>
+      </c>
+      <c r="E63">
+        <v>0.0239410353828415</v>
+      </c>
+      <c r="F63">
+        <v>0.0006642727357594546</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1134691314172083</v>
+        <v>0.1109175573993705</v>
       </c>
       <c r="C64">
-        <v>0.01583226298329176</v>
+        <v>-0.0128358108004721</v>
       </c>
       <c r="D64">
-        <v>0.03241688247654362</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04268458705153156</v>
+      </c>
+      <c r="E64">
+        <v>0.02406740887732146</v>
+      </c>
+      <c r="F64">
+        <v>0.02597732201446428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1438094607627736</v>
+        <v>0.1517689292882207</v>
       </c>
       <c r="C65">
-        <v>0.03518982612196075</v>
+        <v>-0.03568897370130193</v>
       </c>
       <c r="D65">
-        <v>-0.0591526738314895</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04649647729535987</v>
+      </c>
+      <c r="E65">
+        <v>0.006491576217551558</v>
+      </c>
+      <c r="F65">
+        <v>0.03792894277720693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1358219923006302</v>
+        <v>0.1219287180939434</v>
       </c>
       <c r="C66">
-        <v>0.02153068372615553</v>
+        <v>-0.01479255850744052</v>
       </c>
       <c r="D66">
-        <v>0.1289042071696397</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1391421551987579</v>
+      </c>
+      <c r="E66">
+        <v>0.06458518527062077</v>
+      </c>
+      <c r="F66">
+        <v>0.02839631449000097</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06290154070045136</v>
+        <v>0.05566771456092202</v>
       </c>
       <c r="C67">
-        <v>0.005785557301906972</v>
+        <v>-0.003369148083286969</v>
       </c>
       <c r="D67">
-        <v>0.05401479258325281</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05780003482074086</v>
+      </c>
+      <c r="E67">
+        <v>0.01891846235064133</v>
+      </c>
+      <c r="F67">
+        <v>-0.03365431002468421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1070922427589911</v>
+        <v>0.116929326982425</v>
       </c>
       <c r="C68">
-        <v>0.02358686695278191</v>
+        <v>-0.0340810443211853</v>
       </c>
       <c r="D68">
-        <v>-0.2643281205784354</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611467175350862</v>
+      </c>
+      <c r="E68">
+        <v>-0.08912176339607053</v>
+      </c>
+      <c r="F68">
+        <v>-0.0006499050756738619</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04020959115099407</v>
+        <v>0.03863720164701485</v>
       </c>
       <c r="C69">
-        <v>0.002465691171265563</v>
+        <v>-0.001452765504422137</v>
       </c>
       <c r="D69">
-        <v>0.006438403175930956</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00848796074709938</v>
+      </c>
+      <c r="E69">
+        <v>0.02431502645412777</v>
+      </c>
+      <c r="F69">
+        <v>-0.0001565893641371713</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06624293514879484</v>
+        <v>0.06707488537155996</v>
       </c>
       <c r="C70">
-        <v>-0.02429044726695413</v>
+        <v>0.02673084835776676</v>
       </c>
       <c r="D70">
-        <v>0.01700097317725173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0261750893770711</v>
+      </c>
+      <c r="E70">
+        <v>-0.02981386810552576</v>
+      </c>
+      <c r="F70">
+        <v>-0.1811284762017961</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1261510841043384</v>
+        <v>0.1368905314794806</v>
       </c>
       <c r="C71">
-        <v>0.02817897803454082</v>
+        <v>-0.03873091117075746</v>
       </c>
       <c r="D71">
-        <v>-0.2811045584419491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2710046223551325</v>
+      </c>
+      <c r="E71">
+        <v>-0.09835455482375907</v>
+      </c>
+      <c r="F71">
+        <v>0.005264992357895574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1377965178274622</v>
+        <v>0.144684203627525</v>
       </c>
       <c r="C72">
-        <v>0.028082694755287</v>
+        <v>-0.02860655378932776</v>
       </c>
       <c r="D72">
-        <v>0.001336936660010691</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004881128815282011</v>
+      </c>
+      <c r="E72">
+        <v>0.0381545438112715</v>
+      </c>
+      <c r="F72">
+        <v>0.02787879807809204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2047489393671328</v>
+        <v>0.203708224678425</v>
       </c>
       <c r="C73">
-        <v>0.01707779749377722</v>
+        <v>-0.01373481365372855</v>
       </c>
       <c r="D73">
-        <v>0.008650560095474507</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01929777775611226</v>
+      </c>
+      <c r="E73">
+        <v>0.0674037529631142</v>
+      </c>
+      <c r="F73">
+        <v>0.04301995954039241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0931991080806851</v>
+        <v>0.09407293836332505</v>
       </c>
       <c r="C74">
-        <v>0.01466857676954265</v>
+        <v>-0.01410796508807111</v>
       </c>
       <c r="D74">
-        <v>0.01609427369737912</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01685570113402175</v>
+      </c>
+      <c r="E74">
+        <v>0.043814425447074</v>
+      </c>
+      <c r="F74">
+        <v>0.05263762007145716</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1342033019350301</v>
+        <v>0.1262133210374432</v>
       </c>
       <c r="C75">
-        <v>0.03123815118939274</v>
+        <v>-0.02978436226657857</v>
       </c>
       <c r="D75">
-        <v>0.02441033455230566</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02889040796645776</v>
+      </c>
+      <c r="E75">
+        <v>0.05672411574548927</v>
+      </c>
+      <c r="F75">
+        <v>0.02197729219883499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08231969443915875</v>
+        <v>0.09057474050799991</v>
       </c>
       <c r="C77">
-        <v>0.0145366097910698</v>
+        <v>-0.008683761602066638</v>
       </c>
       <c r="D77">
-        <v>0.1062645081868881</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1146747468150427</v>
+      </c>
+      <c r="E77">
+        <v>0.04542419464971946</v>
+      </c>
+      <c r="F77">
+        <v>0.03430565651551844</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09887326188141558</v>
+        <v>0.1007637691719943</v>
       </c>
       <c r="C78">
-        <v>0.04358789305099871</v>
+        <v>-0.03917183075622047</v>
       </c>
       <c r="D78">
-        <v>0.1108746981489327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1103836638601003</v>
+      </c>
+      <c r="E78">
+        <v>0.07547777894989519</v>
+      </c>
+      <c r="F78">
+        <v>0.05280401661473798</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1654736885114863</v>
+        <v>0.1631585990514</v>
       </c>
       <c r="C79">
-        <v>0.02587681921136256</v>
+        <v>-0.02502111008294912</v>
       </c>
       <c r="D79">
-        <v>0.007251496137898342</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01210279548863422</v>
+      </c>
+      <c r="E79">
+        <v>0.04384290544215039</v>
+      </c>
+      <c r="F79">
+        <v>0.0130378315886099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08078506347048051</v>
+        <v>0.07950898839692291</v>
       </c>
       <c r="C80">
-        <v>0.001856651903617498</v>
+        <v>0.000381415940110573</v>
       </c>
       <c r="D80">
-        <v>0.05530012015252532</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0534674758864673</v>
+      </c>
+      <c r="E80">
+        <v>0.03258323049517921</v>
+      </c>
+      <c r="F80">
+        <v>-0.02526354153078758</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1203933399855863</v>
+        <v>0.1165573327357407</v>
       </c>
       <c r="C81">
-        <v>0.03324999113694105</v>
+        <v>-0.03316869570612912</v>
       </c>
       <c r="D81">
-        <v>0.01232694391703561</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01323041869609855</v>
+      </c>
+      <c r="E81">
+        <v>0.05387523816089312</v>
+      </c>
+      <c r="F81">
+        <v>0.01837667351541627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1663220179737546</v>
+        <v>0.165706988030436</v>
       </c>
       <c r="C82">
-        <v>0.02661080115655882</v>
+        <v>-0.02747669685592706</v>
       </c>
       <c r="D82">
-        <v>0.00707345593267136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002356876813923566</v>
+      </c>
+      <c r="E82">
+        <v>0.02813971959107369</v>
+      </c>
+      <c r="F82">
+        <v>0.08255517341811697</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06322805480376417</v>
+        <v>0.05738097223854875</v>
       </c>
       <c r="C83">
-        <v>0.005612155878608819</v>
+        <v>-0.003461240858507205</v>
       </c>
       <c r="D83">
-        <v>0.04239476886324615</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0473197891701388</v>
+      </c>
+      <c r="E83">
+        <v>0.001161366127557155</v>
+      </c>
+      <c r="F83">
+        <v>-0.03575716243971929</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06214922878561758</v>
+        <v>0.05691549237019085</v>
       </c>
       <c r="C84">
-        <v>0.01383396133148122</v>
+        <v>-0.01110173210782979</v>
       </c>
       <c r="D84">
-        <v>0.07012686017883699</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07214604863249635</v>
+      </c>
+      <c r="E84">
+        <v>0.01421163351410219</v>
+      </c>
+      <c r="F84">
+        <v>0.01584571770686913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1392722381888027</v>
+        <v>0.1347368263083735</v>
       </c>
       <c r="C85">
-        <v>0.0301603717504341</v>
+        <v>-0.02988191033531651</v>
       </c>
       <c r="D85">
-        <v>0.008179690813111099</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009511057850480226</v>
+      </c>
+      <c r="E85">
+        <v>0.03635810225782096</v>
+      </c>
+      <c r="F85">
+        <v>0.04802762122713257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1012413235564154</v>
+        <v>0.0937750895175864</v>
       </c>
       <c r="C86">
-        <v>-0.002690238215033287</v>
+        <v>0.005393813417514211</v>
       </c>
       <c r="D86">
-        <v>0.01202209617673117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05303704068426866</v>
+      </c>
+      <c r="E86">
+        <v>0.2263603154582544</v>
+      </c>
+      <c r="F86">
+        <v>-0.8974277631240692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09656129111324534</v>
+        <v>0.09275954343823671</v>
       </c>
       <c r="C87">
-        <v>0.02814617048412212</v>
+        <v>-0.01969191576653636</v>
       </c>
       <c r="D87">
-        <v>0.07374016540662269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09528680024102268</v>
+      </c>
+      <c r="E87">
+        <v>-0.05225054417543516</v>
+      </c>
+      <c r="F87">
+        <v>0.05064602062014126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06193866912525062</v>
+        <v>0.06090244426195388</v>
       </c>
       <c r="C88">
-        <v>0.005514240065605651</v>
+        <v>-0.002775473910301066</v>
       </c>
       <c r="D88">
-        <v>0.05125089596580168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04994670108526128</v>
+      </c>
+      <c r="E88">
+        <v>0.0239244352611535</v>
+      </c>
+      <c r="F88">
+        <v>0.01469637801230118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1183605552560518</v>
+        <v>0.1268118598308398</v>
       </c>
       <c r="C89">
-        <v>0.00494258817738977</v>
+        <v>-0.01399450286351566</v>
       </c>
       <c r="D89">
-        <v>-0.2461275632936392</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2436985809503869</v>
+      </c>
+      <c r="E89">
+        <v>-0.09260892476182542</v>
+      </c>
+      <c r="F89">
+        <v>-0.008619913600183654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1389404637648161</v>
+        <v>0.1522663873081081</v>
       </c>
       <c r="C90">
-        <v>0.02427036390977365</v>
+        <v>-0.03549560911140117</v>
       </c>
       <c r="D90">
-        <v>-0.2650994031153917</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2679152784591527</v>
+      </c>
+      <c r="E90">
+        <v>-0.1139006360678097</v>
+      </c>
+      <c r="F90">
+        <v>-0.01031732771317363</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1216148675248324</v>
+        <v>0.1204797288704251</v>
       </c>
       <c r="C91">
-        <v>0.02092641365200139</v>
+        <v>-0.02149830124415062</v>
       </c>
       <c r="D91">
-        <v>-0.01838132988568322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01688199493918183</v>
+      </c>
+      <c r="E91">
+        <v>0.0537421811428631</v>
+      </c>
+      <c r="F91">
+        <v>-0.001547581077947157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.139985038429303</v>
+        <v>0.1460698814155818</v>
       </c>
       <c r="C92">
-        <v>0.01524714800274266</v>
+        <v>-0.0269661834883681</v>
       </c>
       <c r="D92">
-        <v>-0.2971902504807299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2945172368936667</v>
+      </c>
+      <c r="E92">
+        <v>-0.1038339102377329</v>
+      </c>
+      <c r="F92">
+        <v>-0.01924701792806518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1408747625964802</v>
+        <v>0.1529551081232572</v>
       </c>
       <c r="C93">
-        <v>0.02051447303647658</v>
+        <v>-0.03047220049313617</v>
       </c>
       <c r="D93">
-        <v>-0.2666988759269206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2641606195798542</v>
+      </c>
+      <c r="E93">
+        <v>-0.07641591322811586</v>
+      </c>
+      <c r="F93">
+        <v>0.001436949816462784</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1346274649176526</v>
+        <v>0.1268141619726614</v>
       </c>
       <c r="C94">
-        <v>0.02790380119427826</v>
+        <v>-0.02596697982005057</v>
       </c>
       <c r="D94">
-        <v>0.03827345234786901</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03994842193751735</v>
+      </c>
+      <c r="E94">
+        <v>0.05679892236873493</v>
+      </c>
+      <c r="F94">
+        <v>0.03292822768237311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1248599374317769</v>
+        <v>0.1280864619858795</v>
       </c>
       <c r="C95">
-        <v>0.009760461466022568</v>
+        <v>-0.00420179285638754</v>
       </c>
       <c r="D95">
-        <v>0.08785559010597135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09801217522347343</v>
+      </c>
+      <c r="E95">
+        <v>0.05481653523937939</v>
+      </c>
+      <c r="F95">
+        <v>0.002275939628905076</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1231725697371972</v>
+        <v>0.1186948295997017</v>
       </c>
       <c r="C96">
-        <v>-0.9866855467535361</v>
+        <v>0.9860781450323575</v>
       </c>
       <c r="D96">
-        <v>-0.01640294000079806</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05222193077417463</v>
+      </c>
+      <c r="E96">
+        <v>0.05142712108451952</v>
+      </c>
+      <c r="F96">
+        <v>0.04233782382266309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1953871578782844</v>
+        <v>0.1972723215326999</v>
       </c>
       <c r="C97">
-        <v>-0.004158787426854095</v>
+        <v>0.00441246458847268</v>
       </c>
       <c r="D97">
-        <v>-0.01673116543620255</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0203290179606943</v>
+      </c>
+      <c r="E97">
+        <v>0.02583292706569635</v>
+      </c>
+      <c r="F97">
+        <v>-0.1186013634381493</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1985832661654324</v>
+        <v>0.2048527239617456</v>
       </c>
       <c r="C98">
-        <v>0.01165542700135126</v>
+        <v>-0.008087155022753256</v>
       </c>
       <c r="D98">
-        <v>0.01158678693205397</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01648840035982199</v>
+      </c>
+      <c r="E98">
+        <v>-0.07476734161469385</v>
+      </c>
+      <c r="F98">
+        <v>-0.09198453699850334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05549564969895759</v>
+        <v>0.05535374312115921</v>
       </c>
       <c r="C99">
-        <v>-0.001893125122819652</v>
+        <v>0.003866983192144578</v>
       </c>
       <c r="D99">
-        <v>0.02905158020464254</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03841743533314613</v>
+      </c>
+      <c r="E99">
+        <v>0.02144093133135936</v>
+      </c>
+      <c r="F99">
+        <v>0.004155832678165838</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1444910664362055</v>
+        <v>0.1309845215584861</v>
       </c>
       <c r="C100">
-        <v>-0.03805695793370076</v>
+        <v>0.05077898863704908</v>
       </c>
       <c r="D100">
-        <v>0.3971594573913735</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3543024839756224</v>
+      </c>
+      <c r="E100">
+        <v>-0.884377328364737</v>
+      </c>
+      <c r="F100">
+        <v>-0.1517058489775345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02531024394915294</v>
+        <v>0.02851337671949398</v>
       </c>
       <c r="C101">
-        <v>0.009685990084731573</v>
+        <v>-0.00883654878283888</v>
       </c>
       <c r="D101">
-        <v>0.02749399685210184</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02981748650324932</v>
+      </c>
+      <c r="E101">
+        <v>0.01227906145197191</v>
+      </c>
+      <c r="F101">
+        <v>-0.01474169919088012</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
